--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/MSNA_2024_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD1E944-FC0A-4D9B-A1B2-6D0636E09F29}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DD0E0C-B2E4-4B59-BF3B-6B5825C615DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="179">
   <si>
     <t>AFG</t>
   </si>
@@ -530,6 +530,51 @@
   </si>
   <si>
     <t>school_cycle_pop</t>
+  </si>
+  <si>
+    <t>AFG_WoAA_2024_data_main_recoded</t>
+  </si>
+  <si>
+    <t>AFG_WoAA_2024_data_education_re</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>_submission__uuid</t>
+  </si>
+  <si>
+    <t>edu_ind_gender</t>
+  </si>
+  <si>
+    <t>resn_no_access</t>
+  </si>
+  <si>
+    <t>urbanity</t>
+  </si>
+  <si>
+    <t>pop_group_data</t>
+  </si>
+  <si>
+    <t>displaceed_non_displaced</t>
+  </si>
+  <si>
+    <t>displacement_cat</t>
+  </si>
+  <si>
+    <t>prov_urbanity</t>
+  </si>
+  <si>
+    <t>region_urbanity</t>
+  </si>
+  <si>
+    <t>strata</t>
+  </si>
+  <si>
+    <t>pvor_sex_hoh</t>
+  </si>
+  <si>
+    <t>children_schooling_type</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1059,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1101,12 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
@@ -1064,6 +1115,9 @@
       </c>
       <c r="G2" t="s">
         <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF0ED9-E2D8-430B-B72D-89DF7BCA763F}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,26 +1523,62 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2070,7 +2160,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,6 +2216,45 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DD0E0C-B2E4-4B59-BF3B-6B5825C615DB}"/>
+  <xr:revisionPtr revIDLastSave="638" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4585A669-FF6D-43C4-85C1-CF4DF34689CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
     <sheet name="strata_variables" sheetId="3" r:id="rId3"/>
+    <sheet name="LL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="253">
   <si>
     <t>AFG</t>
   </si>
@@ -575,13 +576,235 @@
   </si>
   <si>
     <t>children_schooling_type</t>
+  </si>
+  <si>
+    <t>main_cleaned</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>loop_sne_cleaned</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>pnpr</t>
+  </si>
+  <si>
+    <t>nsp</t>
+  </si>
+  <si>
+    <t>weight_hh</t>
+  </si>
+  <si>
+    <t>e_enfant_scolarise_formel</t>
+  </si>
+  <si>
+    <t>sne_enfant_ind_age</t>
+  </si>
+  <si>
+    <t>sne_enfant_ind_genre</t>
+  </si>
+  <si>
+    <t>e_niveau_education</t>
+  </si>
+  <si>
+    <t>e_alea</t>
+  </si>
+  <si>
+    <t>e_absence_enseignant</t>
+  </si>
+  <si>
+    <t>e_ecole_abris</t>
+  </si>
+  <si>
+    <t>e_raison_pas_educ_formel</t>
+  </si>
+  <si>
+    <t>e_educ_non_formel</t>
+  </si>
+  <si>
+    <t>e_educ_non_formel_type</t>
+  </si>
+  <si>
+    <t>i_admin1</t>
+  </si>
+  <si>
+    <t>i_admin2</t>
+  </si>
+  <si>
+    <t>i_type_pop</t>
+  </si>
+  <si>
+    <t>d_principal_raison_deplacement</t>
+  </si>
+  <si>
+    <t>d_nb_dep_pdi</t>
+  </si>
+  <si>
+    <t>d_zone</t>
+  </si>
+  <si>
+    <t>source_nourriture_1</t>
+  </si>
+  <si>
+    <t>rcsi_classe</t>
+  </si>
+  <si>
+    <t>fcs_classe</t>
+  </si>
+  <si>
+    <t>classif_score_lcsi</t>
+  </si>
+  <si>
+    <t>principaux_impact_alea_acce_ets_enseignement</t>
+  </si>
+  <si>
+    <t>Ménages</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>edu_ind_age</t>
+  </si>
+  <si>
+    <t>strate_id</t>
+  </si>
+  <si>
+    <t>raw_data_clean</t>
+  </si>
+  <si>
+    <t>loop_data_clean</t>
+  </si>
+  <si>
+    <t>kobo_survey</t>
+  </si>
+  <si>
+    <t>kobo_choices</t>
+  </si>
+  <si>
+    <t>submission_uuid</t>
+  </si>
+  <si>
+    <t>edu_acces_type_yn</t>
+  </si>
+  <si>
+    <t>edu_type_other</t>
+  </si>
+  <si>
+    <t>d_statut_deplacement</t>
+  </si>
+  <si>
+    <t>d_raison_deplacement</t>
+  </si>
+  <si>
+    <t>edu_level_grade_general</t>
+  </si>
+  <si>
+    <t>hh data</t>
+  </si>
+  <si>
+    <t>edu data</t>
+  </si>
+  <si>
+    <t>uuid_hh</t>
+  </si>
+  <si>
+    <t>Start_datetime</t>
+  </si>
+  <si>
+    <t>edu_other_type</t>
+  </si>
+  <si>
+    <t>hoh_dis</t>
+  </si>
+  <si>
+    <t>dis_reason</t>
+  </si>
+  <si>
+    <t>fsl_hhs_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL </t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>checks on level and grade : (${edu_level_grade} = 'secondary_7' or ${edu_level_grade} = 'secondary_8' or ${edu_level_grade} = 'humanite_1') and ${edu_ind_age} &lt; 10 ---(${edu_level_grade} = 'humanite_2' or ${edu_level_grade} = 'humanite_3' or ${edu_level_grade} = 'humanite_4') and ${edu_ind_age} &lt; 14</t>
+  </si>
+  <si>
+    <t>Cleaned household data</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>do not know</t>
+  </si>
+  <si>
+    <t>boma_popgroup_weights</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>gender_member</t>
+  </si>
+  <si>
+    <t>enrolled_school</t>
+  </si>
+  <si>
+    <t>education_disrupted_Teacher_absence</t>
+  </si>
+  <si>
+    <t>education_disrupted_Natural_hazards_such_flood</t>
+  </si>
+  <si>
+    <t>education_disrupted_School_used_shelter_displaced_persons</t>
+  </si>
+  <si>
+    <t>education_disrupted_School_occupied_armed_forces</t>
+  </si>
+  <si>
+    <t>which_level_and_grade</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>A5_state</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>indv_data</t>
+  </si>
+  <si>
+    <t>UKR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +836,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -708,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -720,6 +951,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,19 +1299,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2250809-5B2F-4A3F-BE0D-3D5B0346112D}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="3" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1120,13 +1363,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
@@ -1136,8 +1385,11 @@
       <c r="G3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1154,13 +1406,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
@@ -1170,8 +1428,11 @@
       <c r="G5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1274,24 +1535,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1317,24 +1587,33 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1351,24 +1630,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
+      </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1392,6 +1680,11 @@
       </c>
       <c r="H16" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1403,123 +1696,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF0ED9-E2D8-430B-B72D-89DF7BCA763F}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.40625" customWidth="1"/>
+    <col min="2" max="2" width="12.40625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" customWidth="1"/>
+    <col min="6" max="7" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="21" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.1328125" customWidth="1"/>
+    <col min="19" max="21" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1580,32 +1873,70 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1630,32 +1961,72 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +2051,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +2119,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +2187,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +2212,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1866,32 +2237,68 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1986,32 +2393,72 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2036,32 +2483,66 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2159,16 +2640,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E9D3CA-2EE1-4BDD-BBAB-6CAC8A1C168D}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2212,7 +2693,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2256,27 +2737,87 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2307,22 +2848,37 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2363,22 +2919,52 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2405,4 +2991,144 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA993B-6743-4639-9AF6-D8511E17B29D}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="638" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4585A669-FF6D-43C4-85C1-CF4DF34689CB}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D9CE34-CB91-483D-98FA-36AFF2BEE1A4}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
+    <workbookView xWindow="-270" yWindow="-270" windowWidth="29340" windowHeight="16020" activeTab="2" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="260">
   <si>
     <t>AFG</t>
   </si>
@@ -95,9 +95,6 @@
     <t>BFA2402_MSNA_2024_DATA_CLEANED_MV.xlsx</t>
   </si>
   <si>
-    <t>CAR2402_REACH_MSNA_Base-de-donnees-nettoyees_septembre-2024-1.xlsx</t>
-  </si>
-  <si>
     <t>REACH_DRC2404_MSNA2024_Clean-Data.xlsx</t>
   </si>
   <si>
@@ -798,6 +795,30 @@
   </si>
   <si>
     <t>UKR</t>
+  </si>
+  <si>
+    <t>REACH_RCA_MSNA_2024_data_Weighted_Validated.xlsx</t>
+  </si>
+  <si>
+    <t>hh clean data</t>
+  </si>
+  <si>
+    <t>edu clean data</t>
+  </si>
+  <si>
+    <t>type_population</t>
+  </si>
+  <si>
+    <t>grappe</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>edu_ind</t>
+  </si>
+  <si>
+    <t>admin2label</t>
   </si>
 </sst>
 </file>
@@ -1301,43 +1322,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2250809-5B2F-4A3F-BE0D-3D5B0346112D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
-    <col min="3" max="9" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1345,25 +1366,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1371,320 +1392,338 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
         <v>224</v>
       </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
         <v>208</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>209</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>210</v>
       </c>
-      <c r="G11" t="s">
-        <v>211</v>
-      </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
         <v>215</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>216</v>
       </c>
-      <c r="G13" t="s">
-        <v>217</v>
-      </c>
       <c r="H13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" t="s">
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
         <v>235</v>
       </c>
-      <c r="D15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>236</v>
-      </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1697,336 +1736,372 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K14" sqref="K14:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.40625" customWidth="1"/>
-    <col min="2" max="2" width="12.40625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" customWidth="1"/>
-    <col min="5" max="5" width="23.86328125" customWidth="1"/>
-    <col min="6" max="7" width="7.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="13" max="13" width="12.86328125" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="22.1328125" customWidth="1"/>
-    <col min="19" max="21" width="11.1328125" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="21" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="T1" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="AB1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="E5" s="4">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2051,63 +2126,63 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -2119,63 +2194,63 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -2187,7 +2262,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2287,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2237,398 +2312,432 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4">
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4">
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" t="s">
         <v>141</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>142</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>143</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>144</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>145</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>146</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AB12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD12" s="9" t="s">
+      <c r="AE12" t="s">
         <v>148</v>
       </c>
-      <c r="AE12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="J13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="R13" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="T16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="X16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="Y16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Z16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="AB16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC16" t="s">
         <v>131</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>132</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>133</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2640,351 +2749,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E9D3CA-2EE1-4BDD-BBAB-6CAC8A1C168D}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
         <v>171</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>176</v>
       </c>
-      <c r="I2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" t="s">
-        <v>177</v>
-      </c>
       <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
         <v>153</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>154</v>
       </c>
-      <c r="N2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
         <v>197</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>198</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
         <v>199</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
         <v>202</v>
       </c>
-      <c r="G3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>203</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>205</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>206</v>
       </c>
-      <c r="M3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>229</v>
       </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
         <v>230</v>
       </c>
-      <c r="I5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s">
         <v>159</v>
       </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s">
         <v>162</v>
       </c>
-      <c r="G12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" t="s">
         <v>221</v>
       </c>
-      <c r="G13" t="s">
-        <v>222</v>
-      </c>
       <c r="H13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
         <v>249</v>
       </c>
-      <c r="C15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>117</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>119</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3001,11 +3137,11 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3025,10 +3161,10 @@
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3047,80 +3183,80 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>

--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D9CE34-CB91-483D-98FA-36AFF2BEE1A4}"/>
+  <xr:revisionPtr revIDLastSave="801" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B413ECF-463C-4075-A62D-E9CD64336D98}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="-270" windowWidth="29340" windowHeight="16020" activeTab="2" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
+    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="284">
   <si>
     <t>AFG</t>
   </si>
@@ -92,15 +92,9 @@
     <t>AFG_WoAA_2024_data_main_recoded_with_weight_hoh.xlsx</t>
   </si>
   <si>
-    <t>BFA2402_MSNA_2024_DATA_CLEANED_MV.xlsx</t>
-  </si>
-  <si>
     <t>REACH_DRC2404_MSNA2024_Clean-Data.xlsx</t>
   </si>
   <si>
-    <t>REACH_ETH_Dataset_MSNA_September2024.xlsx</t>
-  </si>
-  <si>
     <t>HTI2401 MSNA DEPARTEMENTS dataset for analysis.xlsx</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>REACH_MLI2402__Clean-Dataset_final.xlsx</t>
   </si>
   <si>
-    <t>REACH_MSNA-2024-NIGER_Base-de-donnees_Septembre2024.xlsx</t>
-  </si>
-  <si>
     <t>REACH_MSNA_2024_FINAL_Cleaned_Weights.xlsx</t>
   </si>
   <si>
@@ -491,12 +482,6 @@
     <t>pop_group</t>
   </si>
   <si>
-    <t>hh_displaced_date_idp_cat</t>
-  </si>
-  <si>
-    <t>hh_displaced_main_cause</t>
-  </si>
-  <si>
     <t>fsl_fcs_cat</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>disagg_admin1_pop</t>
   </si>
   <si>
-    <t>disagg_admin1</t>
-  </si>
-  <si>
     <t>disagg_pop_conflictaffected</t>
   </si>
   <si>
@@ -819,13 +801,103 @@
   </si>
   <si>
     <t>admin2label</t>
+  </si>
+  <si>
+    <t>REACH_MSNA-2024-NIGER_Base-de-donnees_Septembre2024_2.xlsx</t>
+  </si>
+  <si>
+    <t>BFA2402_MSNA_2024_DATA_CLEANED_MV_2.xlsx</t>
+  </si>
+  <si>
+    <t>disagg_pop_income</t>
+  </si>
+  <si>
+    <t>disagg_pop_displaced_times_cat</t>
+  </si>
+  <si>
+    <t>disagg_pop_displaced_date_idp_cat</t>
+  </si>
+  <si>
+    <t>disagg_pop_fsl_fcs_cat</t>
+  </si>
+  <si>
+    <t>disagg_pop_fsl_rcsi_cat</t>
+  </si>
+  <si>
+    <t>disagg_pop_fsl_lcsi_cat</t>
+  </si>
+  <si>
+    <t>barrier_conflict</t>
+  </si>
+  <si>
+    <t>add_col9</t>
+  </si>
+  <si>
+    <t>disagg_pop_barrier_conflict</t>
+  </si>
+  <si>
+    <t>main_cleaned_data</t>
+  </si>
+  <si>
+    <t>education_cleaned</t>
+  </si>
+  <si>
+    <t>access_type</t>
+  </si>
+  <si>
+    <t>another_education</t>
+  </si>
+  <si>
+    <t>sub_county</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>residency_status</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>sub_camp</t>
+  </si>
+  <si>
+    <t>living_time</t>
+  </si>
+  <si>
+    <t>reasons_move</t>
+  </si>
+  <si>
+    <t>ETH1.xlsx</t>
+  </si>
+  <si>
+    <t>Main data</t>
+  </si>
+  <si>
+    <t>Education - Individual</t>
+  </si>
+  <si>
+    <t>Kobo survey</t>
+  </si>
+  <si>
+    <t>Kobo choices</t>
+  </si>
+  <si>
+    <t>edu_highest_level</t>
+  </si>
+  <si>
+    <t>lotof_difficulty</t>
+  </si>
+  <si>
+    <t>cant_do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +934,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -982,9 +1061,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2250809-5B2F-4A3F-BE0D-3D5B0346112D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,28 +1415,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,22 +1447,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,25 +1470,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,25 +1496,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,25 +1522,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,16 +1548,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>280</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,25 +1574,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,25 +1600,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,16 +1626,25 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,16 +1652,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,25 +1678,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,25 +1704,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,25 +1730,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,25 +1756,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,25 +1782,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,30 +1808,30 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1735,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF0ED9-E2D8-430B-B72D-89DF7BCA763F}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:S14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,97 +1866,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="M1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -1856,60 +1964,60 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E2" s="4">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1917,62 +2025,62 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="M3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1980,58 +2088,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -2041,148 +2149,214 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
+      <c r="V6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -2199,58 +2373,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -2266,109 +2440,189 @@
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4">
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2378,94 +2632,94 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4">
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V12" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V12" t="s">
-        <v>141</v>
-      </c>
-      <c r="W12" t="s">
-        <v>142</v>
-      </c>
-      <c r="X12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="AC12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AE12" t="s">
         <v>145</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2473,64 +2727,64 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="T13" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -2538,56 +2792,56 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2597,56 +2851,56 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="O15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="S15" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2656,88 +2910,88 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="Z16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Y16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="AB16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE16" t="s">
         <v>130</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2747,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E9D3CA-2EE1-4BDD-BBAB-6CAC8A1C168D}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,369 +3012,447 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
         <v>169</v>
       </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>176</v>
-      </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>197</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>198</v>
       </c>
-      <c r="F3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>199</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>200</v>
       </c>
-      <c r="I3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="O12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
+      <c r="H16" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3140,31 +3472,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3203,7 +3535,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">

--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="801" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B413ECF-463C-4075-A62D-E9CD64336D98}"/>
+  <xr:revisionPtr revIDLastSave="814" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50BE512-C572-4E04-B2BB-D55770330CD3}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
+    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="290">
   <si>
     <t>AFG</t>
   </si>
@@ -803,12 +803,6 @@
     <t>admin2label</t>
   </si>
   <si>
-    <t>REACH_MSNA-2024-NIGER_Base-de-donnees_Septembre2024_2.xlsx</t>
-  </si>
-  <si>
-    <t>BFA2402_MSNA_2024_DATA_CLEANED_MV_2.xlsx</t>
-  </si>
-  <si>
     <t>disagg_pop_income</t>
   </si>
   <si>
@@ -891,6 +885,30 @@
   </si>
   <si>
     <t>cant_do</t>
+  </si>
+  <si>
+    <t>BFA2402_MSNA_2024_DATA_CLEANED_MV.xlsx</t>
+  </si>
+  <si>
+    <t>c_chef_menage_genre_final</t>
+  </si>
+  <si>
+    <t>hoh_gender_final</t>
+  </si>
+  <si>
+    <t>HHhGenderFinal</t>
+  </si>
+  <si>
+    <t>REACH_MSNA-2024-NIGER_Base-de-donnees_Septembre2024.xlsx</t>
+  </si>
+  <si>
+    <t>c_gender_hoh</t>
+  </si>
+  <si>
+    <t>final_hoh_gender</t>
+  </si>
+  <si>
+    <t>Q4_4_hoh_gender</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1065,7 +1083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,7 +1421,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>172</v>
@@ -1548,22 +1565,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
         <v>276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" t="s">
-        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
         <v>133</v>
@@ -1629,10 +1646,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1655,10 +1672,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -1730,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -1843,19 +1860,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF0ED9-E2D8-430B-B72D-89DF7BCA763F}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
@@ -2287,17 +2305,17 @@
       <c r="AA6" t="s">
         <v>143</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" t="s">
         <v>124</v>
       </c>
-      <c r="AD6" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>283</v>
+      <c r="AD6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -2495,10 +2513,10 @@
         <v>68</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -2560,10 +2578,10 @@
         <v>68</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -3003,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E9D3CA-2EE1-4BDD-BBAB-6CAC8A1C168D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,7 +3074,7 @@
         <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3113,6 +3131,9 @@
       <c r="C3" t="s">
         <v>191</v>
       </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
       <c r="E3" t="s">
         <v>192</v>
       </c>
@@ -3163,6 +3184,9 @@
       <c r="G4" t="s">
         <v>250</v>
       </c>
+      <c r="H4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3195,6 +3219,9 @@
       <c r="J5" t="s">
         <v>224</v>
       </c>
+      <c r="K5" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3216,13 +3243,16 @@
         <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
       <c r="I6" t="s">
         <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3264,13 +3294,13 @@
         <v>241</v>
       </c>
       <c r="C9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
         <v>269</v>
-      </c>
-      <c r="D9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" t="s">
-        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>79</v>
@@ -3286,6 +3316,9 @@
       </c>
       <c r="J9" t="s">
         <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3293,22 +3326,25 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="I10" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3330,6 +3366,9 @@
       <c r="G11" t="s">
         <v>206</v>
       </c>
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3339,7 +3378,7 @@
         <v>152</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>153</v>
@@ -3351,31 +3390,31 @@
         <v>155</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>154</v>
       </c>
       <c r="J12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" t="s">
         <v>259</v>
-      </c>
-      <c r="K12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L12" t="s">
-        <v>261</v>
       </c>
       <c r="M12" t="s">
         <v>156</v>
       </c>
       <c r="N12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O12" t="s">
         <v>262</v>
-      </c>
-      <c r="O12" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3400,6 +3439,9 @@
       <c r="H13" t="s">
         <v>69</v>
       </c>
+      <c r="I13" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3414,6 +3456,9 @@
       <c r="G14" t="s">
         <v>169</v>
       </c>
+      <c r="H14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3453,6 +3498,9 @@
       </c>
       <c r="I16" t="s">
         <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_edu.xlsx
+++ b/metadata_edu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1640" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F7C3E85-33AB-4611-B94F-5ECB036ECF55}"/>
+  <xr:revisionPtr revIDLastSave="1641" documentId="8_{30D75BE5-51DB-40AE-BBB9-B5106A497859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A05294A-E565-4E3D-88E3-B1879C87B907}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{0AD63514-AB0D-44D2-9BD5-CAB371E9A2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -888,9 +888,6 @@
     <t>edu_other_type_syr</t>
   </si>
   <si>
-    <t>BFA_MSNA_2025_CLEANED_2026-01-13_final - Copy.xlsx</t>
-  </si>
-  <si>
     <t>main_cleaned</t>
   </si>
   <si>
@@ -946,6 +943,9 @@
   </si>
   <si>
     <t>i_type_pop</t>
+  </si>
+  <si>
+    <t>BFA_MSNA_2025_CLEANED_2026-01-16.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1712,18 +1712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2250809-5B2F-4A3F-BE0D-3D5B0346112D}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1775,33 +1775,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>283</v>
-      </c>
-      <c r="D3" t="s">
-        <v>284</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
         <v>285</v>
-      </c>
-      <c r="G3" t="s">
-        <v>286</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2035,13 +2035,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="31" t="s">
         <v>45</v>
       </c>
@@ -2119,12 +2119,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -2211,29 +2211,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF0ED9-E2D8-430B-B72D-89DF7BCA763F}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.40625" customWidth="1"/>
+    <col min="2" max="2" width="12.40625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" customWidth="1"/>
+    <col min="6" max="7" width="7.54296875" customWidth="1"/>
+    <col min="8" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="21" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.1328125" customWidth="1"/>
+    <col min="19" max="21" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="AD2" s="26"/>
       <c r="AE2" s="26"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
@@ -2431,32 +2431,32 @@
         <v>104</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="25"/>
@@ -2466,7 +2466,7 @@
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="19" t="s">
         <v>41</v>
       </c>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="AD12" s="22"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="29" t="s">
         <v>42</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="28" t="s">
         <v>44</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" s="28" t="s">
         <v>45</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -3605,14 +3605,14 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="2" width="26.5703125" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="8.7265625" style="15"/>
+    <col min="2" max="2" width="26.54296875" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" s="17" t="s">
         <v>42</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="17" t="s">
         <v>43</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" s="17" t="s">
         <v>45</v>
       </c>
@@ -3733,20 +3733,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E9D3CA-2EE1-4BDD-BBAB-6CAC8A1C168D}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="32.40625" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3825,33 +3825,33 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
         <v>296</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>297</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>299</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>301</v>
       </c>
       <c r="H3" s="46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4075,12 +4075,12 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -4143,12 +4143,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -4234,9 +4234,9 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A1" s="47" t="s">
         <v>178</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>179</v>
@@ -4280,22 +4280,22 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4303,57 +4303,57 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>45</v>
       </c>
